--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>125900</v>
+      </c>
+      <c r="F8" s="3">
         <v>138000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>143800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>146900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>138700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>135800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>136200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>97300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F9" s="3">
         <v>85900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>87600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>90300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>85800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>84100</v>
       </c>
       <c r="I9" s="3">
         <v>85800</v>
       </c>
       <c r="J9" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>85800</v>
+      </c>
+      <c r="L9" s="3">
         <v>59700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F10" s="3">
         <v>52100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>56200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>56600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>52900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>51700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>50400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>37600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,42 +904,54 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="3">
         <v>4500</v>
@@ -915,22 +960,28 @@
         <v>4500</v>
       </c>
       <c r="G15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I15" s="3">
         <v>6100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>7000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F17" s="3">
         <v>118800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>117500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>121700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>117200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>116900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>119400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>80500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F18" s="3">
         <v>19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>21500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>18900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,83 +1075,97 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-500</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>27800</v>
+        <v>-1700</v>
       </c>
       <c r="E21" s="3">
-        <v>34400</v>
+        <v>29200</v>
       </c>
       <c r="F21" s="3">
-        <v>33800</v>
+        <v>28100</v>
       </c>
       <c r="G21" s="3">
+        <v>34600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I21" s="3">
         <v>27900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>26000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F23" s="3">
         <v>15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>21900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>17000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>17100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F27" s="3">
         <v>12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>17300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>17100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,23 +1406,29 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-600</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>-600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>500</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F33" s="3">
         <v>12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>17300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F35" s="3">
         <v>12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>17300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>29900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>198500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,124 +1771,154 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F43" s="3">
         <v>80300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>85000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>84200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>77400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>80100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>74900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>47400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>85200</v>
+      </c>
+      <c r="F44" s="3">
         <v>89300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>97200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>88900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>86000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>88400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>77300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>40900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F46" s="3">
         <v>196400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>208300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>196900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>196300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>191100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>290800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1946,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>145900</v>
+      </c>
+      <c r="F48" s="3">
         <v>144200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>146600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>145100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>126900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>122700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>114400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>93900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>632800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>672200</v>
+      </c>
+      <c r="F49" s="3">
         <v>666500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>692300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>689500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>703700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>678000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>674900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>211000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F52" s="3">
         <v>13900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>13000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>11900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>993800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1021800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1021000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1059900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1047800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1042200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1008600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>992400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>603800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F57" s="3">
         <v>34800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>41900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>41300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>40900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>36100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>39100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F58" s="3">
         <v>6900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F59" s="3">
         <v>34600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>34800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>51500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>46900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>50900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>64600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F60" s="3">
         <v>76400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>83000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>98600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>93000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>91900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>107300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>52300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>287100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>292800</v>
+      </c>
+      <c r="F61" s="3">
         <v>311400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>338700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>332300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>347500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>359800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>351700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>74900</v>
+      </c>
+      <c r="F62" s="3">
         <v>74700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>79800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>76500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>70900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>30400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>25500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>444100</v>
+      </c>
+      <c r="F66" s="3">
         <v>462500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>501600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>507300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>511400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>482100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>489000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>78700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>247500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>267700</v>
+      </c>
+      <c r="F72" s="3">
         <v>256700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>246800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>232400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>219100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>205500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>196800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>192800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>551600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>577600</v>
+      </c>
+      <c r="F76" s="3">
         <v>558400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>558300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>540500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>530800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>526500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>503400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>525100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F81" s="3">
         <v>12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>17300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F83" s="3">
         <v>8800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>10900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F89" s="3">
         <v>25500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>19800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>33200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-15600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-536000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2998,19 +3465,25 @@
         <v>-2900</v>
       </c>
       <c r="H96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-26600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-17700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-15900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>352000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>122400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-168600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>134600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E8" s="3">
         <v>129500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>138000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>143800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>146900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>138700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>135800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>97300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E9" s="3">
         <v>77600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>84100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E10" s="3">
         <v>51900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,51 +927,57 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>31900</v>
       </c>
-      <c r="E14" s="3">
-        <v>-100</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>600</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>300</v>
       </c>
       <c r="L14" s="3">
+        <v>300</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E15" s="3">
         <v>4300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4500</v>
       </c>
       <c r="F15" s="3">
         <v>4500</v>
@@ -966,22 +989,25 @@
         <v>4500</v>
       </c>
       <c r="I15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J15" s="3">
         <v>6100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2000</v>
       </c>
       <c r="M15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E17" s="3">
         <v>139500</v>
       </c>
-      <c r="E17" s="3">
-        <v>107100</v>
-      </c>
       <c r="F17" s="3">
-        <v>118800</v>
+        <v>107200</v>
       </c>
       <c r="G17" s="3">
+        <v>118900</v>
+      </c>
+      <c r="H17" s="3">
         <v>117500</v>
       </c>
-      <c r="H17" s="3">
-        <v>121700</v>
-      </c>
       <c r="I17" s="3">
-        <v>117200</v>
+        <v>121000</v>
       </c>
       <c r="J17" s="3">
+        <v>116700</v>
+      </c>
+      <c r="K17" s="3">
         <v>116900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>119400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10000</v>
       </c>
-      <c r="E18" s="3">
-        <v>18800</v>
-      </c>
       <c r="F18" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="G18" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H18" s="3">
         <v>26300</v>
       </c>
-      <c r="H18" s="3">
-        <v>25200</v>
-      </c>
       <c r="I18" s="3">
-        <v>21500</v>
+        <v>25900</v>
       </c>
       <c r="J18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K18" s="3">
         <v>18900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>16800</v>
       </c>
       <c r="L18" s="3">
         <v>16800</v>
       </c>
       <c r="M18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,98 +1110,105 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>-4400</v>
+        <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4700</v>
       </c>
       <c r="H24" s="3">
         <v>4700</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,11 +1473,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="G32" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>16400</v>
       </c>
       <c r="I33" s="3">
         <v>16400</v>
       </c>
       <c r="J33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K33" s="3">
         <v>11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>16400</v>
       </c>
       <c r="I35" s="3">
         <v>16400</v>
       </c>
       <c r="J35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K35" s="3">
         <v>11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>198500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1867,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E43" s="3">
         <v>76100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>80300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>77400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E44" s="3">
         <v>86700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>85200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>89300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>97200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>88900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>86000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>77300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E45" s="3">
         <v>14900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E46" s="3">
         <v>205000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>192600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>196400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>208300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>191100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>290800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2057,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>140600</v>
+      </c>
+      <c r="E48" s="3">
         <v>141900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>145900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>144200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>146600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>145100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>126900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>632600</v>
+      </c>
+      <c r="E49" s="3">
         <v>632800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>672200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>666500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>692300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>689500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>703700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>678000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>674900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>211000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1001800</v>
+      </c>
+      <c r="E54" s="3">
         <v>993800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1021800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1021000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1059900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1047800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1042200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1008600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>992400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>603800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E57" s="3">
         <v>33100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E59" s="3">
         <v>37900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E60" s="3">
         <v>78400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>83000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>107300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>277200</v>
+      </c>
+      <c r="E61" s="3">
         <v>287100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>292800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>311400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>338700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>332300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>347500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>359800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>351700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E62" s="3">
         <v>76800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>79800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>70900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E66" s="3">
         <v>442200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>444100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>462500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>501600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>507300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>511400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>482100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>489000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>257600</v>
+      </c>
+      <c r="E72" s="3">
         <v>247500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>267700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>256700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>246800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>232400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>219100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>205500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>196800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>192800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>566800</v>
+      </c>
+      <c r="E76" s="3">
         <v>551600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>577600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>558400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>558300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>540500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>530800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>526500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>503400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>525100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>16400</v>
       </c>
       <c r="I81" s="3">
         <v>16400</v>
       </c>
       <c r="J81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K81" s="3">
         <v>11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8600</v>
       </c>
       <c r="H83" s="3">
         <v>8600</v>
       </c>
       <c r="I83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J83" s="3">
         <v>10900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E89" s="3">
         <v>15100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-536000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3471,19 +3705,22 @@
         <v>-2900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K96" s="3">
         <v>-2800</v>
       </c>
       <c r="L96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="M96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>352000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>122400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-168600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>134600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E8" s="3">
         <v>119300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>129500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>138000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>143800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>146900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>138700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>97300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E9" s="3">
         <v>74600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>85800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>84100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E10" s="3">
         <v>44700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>56600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,57 +947,63 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>300</v>
       </c>
       <c r="M14" s="3">
+        <v>300</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="3">
         <v>4400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4500</v>
       </c>
       <c r="G15" s="3">
         <v>4500</v>
@@ -992,22 +1015,25 @@
         <v>4500</v>
       </c>
       <c r="J15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K15" s="3">
         <v>6100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2000</v>
       </c>
       <c r="N15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E17" s="3">
         <v>102600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>107200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>116700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>116900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>119400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>80500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="3">
         <v>16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>16800</v>
       </c>
       <c r="M18" s="3">
         <v>16800</v>
       </c>
       <c r="N18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,107 +1144,114 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E21" s="3">
         <v>25100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E23" s="3">
         <v>13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4700</v>
       </c>
       <c r="I24" s="3">
         <v>4700</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,11 +1537,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>16400</v>
       </c>
       <c r="J33" s="3">
         <v>16400</v>
       </c>
       <c r="K33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L33" s="3">
         <v>11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>16400</v>
       </c>
       <c r="J35" s="3">
         <v>16400</v>
       </c>
       <c r="K35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L35" s="3">
         <v>11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E41" s="3">
         <v>37000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>198500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +1960,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E43" s="3">
         <v>78200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>80300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E44" s="3">
         <v>85000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>86700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>85200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>89300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>97200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>88900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>86000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
         <v>15000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E46" s="3">
         <v>215100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>205000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>192600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>196400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>208300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>191100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>290800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2165,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E48" s="3">
         <v>140600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>141900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>145900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>144200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>146600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>145100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>126900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>644400</v>
+      </c>
+      <c r="E49" s="3">
         <v>632600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>632800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>672200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>666500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>692300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>689500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>703700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>678000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>674900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>211000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E52" s="3">
         <v>13500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>999200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1001800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>993800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1021800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1021000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1059900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1047800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1042200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1008600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>992400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>603800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E57" s="3">
         <v>29400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E58" s="3">
         <v>10200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E59" s="3">
         <v>42300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E60" s="3">
         <v>81900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>107300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E61" s="3">
         <v>277200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>287100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>292800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>311400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>338700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>332300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>347500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>359800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>351700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E62" s="3">
         <v>75900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>76800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>79800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>76500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>411300</v>
+      </c>
+      <c r="E66" s="3">
         <v>435000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>442200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>444100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>462500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>501600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>507300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>511400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>482100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>489000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E72" s="3">
         <v>257600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>247500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>267700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>256700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>246800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>232400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>219100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>205500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>196800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>192800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>587800</v>
+      </c>
+      <c r="E76" s="3">
         <v>566800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>551600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>577600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>558400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>558300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>540500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>530800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>526500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>503400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>525100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>16400</v>
       </c>
       <c r="J81" s="3">
         <v>16400</v>
       </c>
       <c r="K81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L81" s="3">
         <v>11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8600</v>
       </c>
       <c r="I83" s="3">
         <v>8600</v>
       </c>
       <c r="J83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K83" s="3">
         <v>10900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E89" s="3">
         <v>25300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-536000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3708,19 +3942,22 @@
         <v>-2900</v>
       </c>
       <c r="K96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="L96" s="3">
         <v>-2800</v>
       </c>
       <c r="M96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="N96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>352000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>122400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-168600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>134600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E8" s="3">
         <v>122600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>129500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>125900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>138000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>143800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>146900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E9" s="3">
         <v>75700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>84100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E10" s="3">
         <v>46900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>47400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>56200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,63 +967,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>300</v>
       </c>
       <c r="N14" s="3">
+        <v>300</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4500</v>
       </c>
       <c r="H15" s="3">
         <v>4500</v>
@@ -1018,22 +1041,25 @@
         <v>4500</v>
       </c>
       <c r="K15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L15" s="3">
         <v>6100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2000</v>
       </c>
       <c r="O15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E17" s="3">
         <v>104300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>139500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>107200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>116700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>116900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>119400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>80500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>18300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>16800</v>
       </c>
       <c r="N18" s="3">
         <v>16800</v>
       </c>
       <c r="O18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,116 +1178,123 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E21" s="3">
         <v>27900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1268,90 +1308,99 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>16400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4700</v>
       </c>
       <c r="J24" s="3">
         <v>4700</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,11 +1601,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-600</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1552,11 +1613,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>16400</v>
       </c>
       <c r="K33" s="3">
         <v>16400</v>
       </c>
       <c r="L33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="M33" s="3">
         <v>11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>16400</v>
       </c>
       <c r="K35" s="3">
         <v>16400</v>
       </c>
       <c r="L35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="M35" s="3">
         <v>11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1967,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E41" s="3">
         <v>32400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>198500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2053,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E43" s="3">
         <v>80000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>76100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>80300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>77400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E44" s="3">
         <v>77600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>85000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>86700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>85200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>89300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>88400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E46" s="3">
         <v>204000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>205000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>192600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>196400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>208300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>191100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>290800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,90 +2273,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E48" s="3">
         <v>139300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>140600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>141900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>145900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>144200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>146600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>145100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>93900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>862900</v>
+      </c>
+      <c r="E49" s="3">
         <v>644400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>632600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>632800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>672200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>666500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>692300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>689500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>703700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>678000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>674900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>211000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2449,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
         <v>11400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="E54" s="3">
         <v>999200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1001800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>993800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1021800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1021000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1059900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1047800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1042200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1008600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>992400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>603800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2619,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E57" s="3">
         <v>31300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E58" s="3">
         <v>11800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E59" s="3">
         <v>43300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E60" s="3">
         <v>86400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>107300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>445800</v>
+      </c>
+      <c r="E61" s="3">
         <v>248500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>277200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>287100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>292800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>311400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>338700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>332300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>347500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>359800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>351700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E62" s="3">
         <v>76400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>76800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>79800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>76500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3013,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>689200</v>
+      </c>
+      <c r="E66" s="3">
         <v>411300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>435000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>442200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>444100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>462500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>501600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>507300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>511400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>482100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>489000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>270300</v>
+      </c>
+      <c r="E72" s="3">
         <v>267700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>257600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>247500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>267700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>256700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>246800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>232400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>219100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>205500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>196800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>192800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>607800</v>
+      </c>
+      <c r="E76" s="3">
         <v>587800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>566800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>551600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>577600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>558400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>558300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>540500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>530800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>526500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>503400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>525100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>16400</v>
       </c>
       <c r="K81" s="3">
         <v>16400</v>
       </c>
       <c r="L81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="M81" s="3">
         <v>11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3628,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E83" s="3">
         <v>8800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8600</v>
       </c>
       <c r="J83" s="3">
         <v>8600</v>
       </c>
       <c r="K83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L83" s="3">
         <v>10900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E89" s="3">
         <v>36700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3954,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-226900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-536000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3945,19 +4179,22 @@
         <v>-2900</v>
       </c>
       <c r="L96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="M96" s="3">
         <v>-2800</v>
       </c>
       <c r="N96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="O96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4322,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>352000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>122400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-168600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>134600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>204800</v>
+      </c>
+      <c r="E8" s="3">
         <v>151600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>119300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>129500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>125900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>138000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>143800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>146900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>135800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>136200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E9" s="3">
         <v>98900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>84100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E10" s="3">
         <v>52700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>47400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,58 +1000,61 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>300</v>
       </c>
       <c r="O14" s="3">
+        <v>300</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E15" s="3">
         <v>8800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4500</v>
       </c>
       <c r="I15" s="3">
         <v>4500</v>
@@ -1044,22 +1066,25 @@
         <v>4500</v>
       </c>
       <c r="L15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2000</v>
       </c>
       <c r="P15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E17" s="3">
         <v>141200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>139500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>107200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>118900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>116700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>116900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>119400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>80500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>16800</v>
       </c>
       <c r="O18" s="3">
         <v>16800</v>
       </c>
       <c r="P18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,125 +1211,132 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E21" s="3">
         <v>25800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1311,96 +1350,105 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E23" s="3">
         <v>7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4700</v>
       </c>
       <c r="K24" s="3">
         <v>4700</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1604,11 +1664,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1616,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>16400</v>
       </c>
       <c r="L33" s="3">
         <v>16400</v>
       </c>
       <c r="M33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N33" s="3">
         <v>11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>16400</v>
       </c>
       <c r="L35" s="3">
         <v>16400</v>
       </c>
       <c r="M35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N35" s="3">
         <v>11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E41" s="3">
         <v>25200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>198500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E43" s="3">
         <v>101500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>80000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>78200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>76100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>80300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E44" s="3">
         <v>110400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>77600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>85000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>86700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>85200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>89300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>97200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E46" s="3">
         <v>254000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>204000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>205000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>192600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>208300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>191100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>290800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E48" s="3">
         <v>163200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>140600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>141900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>145900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>146600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>145100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>93900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>841400</v>
+      </c>
+      <c r="E49" s="3">
         <v>862900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>644400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>632600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>632800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>672200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>666500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>692300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>689500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>703700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>678000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>674900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>211000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,43 +2580,46 @@
         <v>16900</v>
       </c>
       <c r="E52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F52" s="3">
         <v>11400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1311500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1297000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>999200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1001800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>993800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1021800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1021000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1059900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1047800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1042200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1008600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>992400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>603800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E57" s="3">
         <v>59500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E58" s="3">
         <v>16200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E59" s="3">
         <v>52300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E60" s="3">
         <v>128000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>76400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>83000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>107300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E61" s="3">
         <v>445800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>248500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>277200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>287100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>292800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>311400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>338700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>332300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>347500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>359800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>351700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E62" s="3">
         <v>115300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>76400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>79800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>76500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>686300</v>
+      </c>
+      <c r="E66" s="3">
         <v>689200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>411300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>435000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>442200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>444100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>462500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>501600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>507300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>511400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>482100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>489000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E72" s="3">
         <v>270300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>267700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>257600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>247500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>267700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>256700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>246800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>232400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>219100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>205500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>196800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>192800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>625300</v>
+      </c>
+      <c r="E76" s="3">
         <v>607800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>587800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>566800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>551600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>577600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>558400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>558300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>540500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>530800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>526500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>503400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>525100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>16400</v>
       </c>
       <c r="L81" s="3">
         <v>16400</v>
       </c>
       <c r="M81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N81" s="3">
         <v>11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E83" s="3">
         <v>13900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8600</v>
       </c>
       <c r="K83" s="3">
         <v>8600</v>
       </c>
       <c r="L83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M83" s="3">
         <v>10900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E89" s="3">
         <v>31500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-226900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-536000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4182,19 +4415,22 @@
         <v>-2900</v>
       </c>
       <c r="M96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="N96" s="3">
         <v>-2800</v>
       </c>
       <c r="O96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="P96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>192000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>352000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>122400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-168600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>134600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E8" s="3">
         <v>204800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>151600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>119300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>129500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>125900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>138000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>143800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>136200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E9" s="3">
         <v>129500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>98900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>85900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>84100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>85800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E10" s="3">
         <v>75300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>47400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1003,61 +1022,64 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>300</v>
       </c>
       <c r="P14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E15" s="3">
         <v>10200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4500</v>
       </c>
       <c r="J15" s="3">
         <v>4500</v>
@@ -1069,22 +1091,25 @@
         <v>4500</v>
       </c>
       <c r="M15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2000</v>
       </c>
       <c r="Q15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E17" s="3">
         <v>170200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>141200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>139500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>107200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>118900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>117500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>121000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>116700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>119400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>80500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E18" s="3">
         <v>34600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>16800</v>
       </c>
       <c r="P18" s="3">
         <v>16800</v>
       </c>
       <c r="Q18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,125 +1254,131 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-400</v>
       </c>
       <c r="M20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E21" s="3">
         <v>49400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1353,102 +1392,111 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E23" s="3">
         <v>29400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4700</v>
       </c>
       <c r="L24" s="3">
         <v>4700</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E26" s="3">
         <v>22600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E27" s="3">
         <v>22600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1667,11 +1727,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1679,11 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1854,99 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>400</v>
       </c>
       <c r="M32" s="3">
+        <v>400</v>
+      </c>
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E33" s="3">
         <v>22600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>16400</v>
       </c>
       <c r="M33" s="3">
         <v>16400</v>
       </c>
       <c r="N33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="O33" s="3">
         <v>11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E35" s="3">
         <v>22600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>16400</v>
       </c>
       <c r="M35" s="3">
         <v>16400</v>
       </c>
       <c r="N35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="O35" s="3">
         <v>11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E41" s="3">
         <v>25900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>198500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E43" s="3">
         <v>127200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>80000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>78200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E44" s="3">
         <v>119800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>77600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>85000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>86700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>85200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>89300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>88900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E46" s="3">
         <v>292600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>254000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>204000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>215100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>205000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>192600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>208300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>191100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>290800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E48" s="3">
         <v>160700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>163200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>139300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>140600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>141900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>145900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>146600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>145100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>126900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>122700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>93900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>837700</v>
+      </c>
+      <c r="E49" s="3">
         <v>841400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>862900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>644400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>632600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>632800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>672200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>666500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>692300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>689500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>703700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>678000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>674900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>211000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16900</v>
+        <v>15100</v>
       </c>
       <c r="E52" s="3">
         <v>16900</v>
       </c>
       <c r="F52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G52" s="3">
         <v>11400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1340400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1311500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1297000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>999200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1001800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>993800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1021800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1021000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1059900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1047800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1042200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1008600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>992400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>603800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E57" s="3">
         <v>72600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E58" s="3">
         <v>15800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E59" s="3">
         <v>53700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E60" s="3">
         <v>142100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>128000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>86400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>76500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>76400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>107300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E61" s="3">
         <v>435900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>445800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>248500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>277200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>287100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>292800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>311400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>338700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>332300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>347500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>359800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>351700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E62" s="3">
         <v>108200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>115300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>76400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>75900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>79800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>76500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E66" s="3">
         <v>686300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>689200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>411300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>435000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>442200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>444100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>462500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>501600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>507300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>511400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>482100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>489000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>317800</v>
+      </c>
+      <c r="E72" s="3">
         <v>290000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>270300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>267700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>257600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>247500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>267700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>256700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>246800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>232400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>219100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>205500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>196800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>192800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>658300</v>
+      </c>
+      <c r="E76" s="3">
         <v>625300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>607800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>587800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>566800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>551600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>577600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>558400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>558300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>540500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>530800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>526500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>503400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>525100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E81" s="3">
         <v>22600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>16400</v>
       </c>
       <c r="M81" s="3">
         <v>16400</v>
       </c>
       <c r="N81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="O81" s="3">
         <v>11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E83" s="3">
         <v>15200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8600</v>
       </c>
       <c r="L83" s="3">
         <v>8600</v>
       </c>
       <c r="M83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N83" s="3">
         <v>10900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E89" s="3">
         <v>15100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-226900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-536000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4418,19 +4651,22 @@
         <v>-2900</v>
       </c>
       <c r="N96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="O96" s="3">
         <v>-2800</v>
       </c>
       <c r="P96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="Q96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>192000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>352000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>122400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-168600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>134600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E8" s="3">
         <v>223400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>204800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>151600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>119300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>129500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>125900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>143800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>135800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>136200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E9" s="3">
         <v>141300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>129500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>98900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>78500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>90300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>84100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>85800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E10" s="3">
         <v>82100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1024,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1025,64 +1044,67 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>300</v>
       </c>
       <c r="Q14" s="3">
+        <v>300</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E15" s="3">
         <v>7700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4500</v>
       </c>
       <c r="K15" s="3">
         <v>4500</v>
@@ -1094,22 +1116,25 @@
         <v>4500</v>
       </c>
       <c r="N15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O15" s="3">
         <v>6100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2000</v>
       </c>
       <c r="R15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E17" s="3">
         <v>181400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>170200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>139500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>107200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>121000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>119400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>80500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E18" s="3">
         <v>42000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>34600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>16800</v>
       </c>
       <c r="Q18" s="3">
         <v>16800</v>
       </c>
       <c r="R18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="S18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,143 +1277,150 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
       </c>
       <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-400</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
       </c>
       <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E21" s="3">
         <v>54600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1395,108 +1434,117 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>37300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4700</v>
       </c>
       <c r="M24" s="3">
         <v>4700</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E26" s="3">
         <v>30700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E27" s="3">
         <v>30700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1730,11 +1790,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1742,11 +1802,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
       </c>
       <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
       </c>
       <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
         <v>5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E33" s="3">
         <v>30700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>16400</v>
       </c>
       <c r="N33" s="3">
         <v>16400</v>
       </c>
       <c r="O33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="P33" s="3">
         <v>11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E35" s="3">
         <v>30700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>16400</v>
       </c>
       <c r="N35" s="3">
         <v>16400</v>
       </c>
       <c r="O35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="P35" s="3">
         <v>11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E41" s="3">
         <v>34400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>198500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2329,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E43" s="3">
         <v>138300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>127200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>101500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>80000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E44" s="3">
         <v>132300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>119800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>77600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>85000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>86700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>85200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>89300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>97200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>356700</v>
+      </c>
+      <c r="E46" s="3">
         <v>324400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>292600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>254000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>204000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>215100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>205000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>192600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>191100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>290800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2594,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>165800</v>
+      </c>
+      <c r="E48" s="3">
         <v>163200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>160700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>163200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>140600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>141900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>145900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>146600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>145100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>122700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>93900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>879900</v>
+      </c>
+      <c r="E49" s="3">
         <v>837700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>841400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>862900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>644400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>632600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>632800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>672200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>666500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>692300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>689500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>703700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>678000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>674900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>211000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E52" s="3">
         <v>15100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>16900</v>
       </c>
       <c r="F52" s="3">
         <v>16900</v>
       </c>
       <c r="G52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H52" s="3">
         <v>11400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1418000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1340400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1311500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1297000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>999200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1001800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>993800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1021800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1021000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1059900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1047800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1042200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1008600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>992400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>603800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E57" s="3">
         <v>74600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E58" s="3">
         <v>15700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E59" s="3">
         <v>60800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E60" s="3">
         <v>151000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>128000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>86400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>76500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>91900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>107300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>454900</v>
+      </c>
+      <c r="E61" s="3">
         <v>421000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>435900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>445800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>248500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>277200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>287100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>292800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>311400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>338700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>332300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>347500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>359800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>351700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E62" s="3">
         <v>110000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>115300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>75900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>76800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>76500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>729500</v>
+      </c>
+      <c r="E66" s="3">
         <v>682000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>686300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>689200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>411300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>435000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>442200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>444100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>462500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>501600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>507300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>511400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>482100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>489000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E72" s="3">
         <v>317800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>290000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>270300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>267700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>257600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>247500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>267700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>256700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>246800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>232400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>219100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>205500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>196800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>192800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>688400</v>
+      </c>
+      <c r="E76" s="3">
         <v>658300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>625300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>607800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>587800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>566800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>551600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>577600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>558400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>558300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>540500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>530800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>526500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>503400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>525100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E81" s="3">
         <v>30700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>16400</v>
       </c>
       <c r="N81" s="3">
         <v>16400</v>
       </c>
       <c r="O81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="P81" s="3">
         <v>11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E83" s="3">
         <v>12900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8600</v>
       </c>
       <c r="M83" s="3">
         <v>8600</v>
       </c>
       <c r="N83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O83" s="3">
         <v>10900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E89" s="3">
         <v>34500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,49 +4624,52 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-226900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-536000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4654,19 +4887,22 @@
         <v>-2900</v>
       </c>
       <c r="O96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="P96" s="3">
         <v>-2800</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="R96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>192000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-34600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>352000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>122400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-168600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>134600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,255 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E8" s="3">
         <v>223200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>223400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>204800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>151600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>119300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>129500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>125900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>143800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>146900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>135800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>136200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E9" s="3">
         <v>142300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>141300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>129500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>98900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>85800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>84100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E10" s="3">
         <v>80900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,19 +1043,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1047,67 +1066,70 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>31900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>300</v>
       </c>
       <c r="R14" s="3">
+        <v>300</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="3">
         <v>7400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4500</v>
       </c>
       <c r="L15" s="3">
         <v>4500</v>
@@ -1119,22 +1141,25 @@
         <v>4500</v>
       </c>
       <c r="O15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P15" s="3">
         <v>6100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2000</v>
       </c>
       <c r="S15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E17" s="3">
         <v>182500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>181400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>170200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>141200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>104300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>139500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>121000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>119400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>80500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E18" s="3">
         <v>40700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>34600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>16800</v>
       </c>
       <c r="R18" s="3">
         <v>16800</v>
       </c>
       <c r="S18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="T18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,152 +1310,159 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-400</v>
       </c>
       <c r="N20" s="3">
         <v>-400</v>
       </c>
       <c r="O20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E21" s="3">
         <v>54100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>49400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1437,114 +1476,123 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E23" s="3">
         <v>37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>9500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4700</v>
       </c>
       <c r="N24" s="3">
         <v>4700</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>27800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>27800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1793,11 +1853,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1805,11 +1865,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>400</v>
       </c>
       <c r="N32" s="3">
         <v>400</v>
       </c>
       <c r="O32" s="3">
+        <v>400</v>
+      </c>
+      <c r="P32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>27800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>16400</v>
       </c>
       <c r="O33" s="3">
         <v>16400</v>
       </c>
       <c r="P33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>27800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>16400</v>
       </c>
       <c r="O35" s="3">
         <v>16400</v>
       </c>
       <c r="P35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2311,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E41" s="3">
         <v>47700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>198500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,220 +2421,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E43" s="3">
         <v>142900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>138300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>127200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>101500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>80000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>77400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>80100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E44" s="3">
         <v>148200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>132300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>119800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>77600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>85000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>86700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>97200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>86000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>88400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>351600</v>
+      </c>
+      <c r="E46" s="3">
         <v>356700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>324400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>292600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>254000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>215100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>205000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>192600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>196300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>191100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>290800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,114 +2701,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E48" s="3">
         <v>165800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>163200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>160700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>163200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>139300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>140600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>141900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>145900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>144200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>146600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>145100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>126900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>122700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>93900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>872700</v>
+      </c>
+      <c r="E49" s="3">
         <v>879900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>837700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>841400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>862900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>644400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>632600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>632800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>672200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>666500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>692300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>689500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>703700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>678000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>674900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>211000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E52" s="3">
         <v>15500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>16900</v>
       </c>
       <c r="G52" s="3">
         <v>16900</v>
       </c>
       <c r="H52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I52" s="3">
         <v>11400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1418000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1340400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1311500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1297000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>999200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1001800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>993800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1021800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1021000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1059900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1047800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1042200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1008600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>992400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>603800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3139,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E57" s="3">
         <v>73900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E58" s="3">
         <v>15400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E59" s="3">
         <v>68600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E60" s="3">
         <v>157900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>151000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>86400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>107300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>426200</v>
+      </c>
+      <c r="E61" s="3">
         <v>454900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>421000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>435900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>445800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>248500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>277200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>287100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>292800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>311400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>338700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>332300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>347500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>359800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>351700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E62" s="3">
         <v>116800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>115300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>75900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>76800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>79800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>76500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>706400</v>
+      </c>
+      <c r="E66" s="3">
         <v>729500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>682000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>686300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>689200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>411300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>435000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>442200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>444100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>462500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>501600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>507300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>511400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>482100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>489000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>363300</v>
+      </c>
+      <c r="E72" s="3">
         <v>342600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>317800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>290000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>270300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>267700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>257600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>247500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>267700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>256700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>246800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>232400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>219100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>205500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>196800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>192800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E76" s="3">
         <v>688400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>658300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>625300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>607800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>587800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>566800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>551600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>577600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>558400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>558300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>540500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>530800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>526500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>503400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>525100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>27800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>16400</v>
       </c>
       <c r="O81" s="3">
         <v>16400</v>
       </c>
       <c r="P81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8600</v>
       </c>
       <c r="N83" s="3">
         <v>8600</v>
       </c>
       <c r="O83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P83" s="3">
         <v>10900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E89" s="3">
         <v>32500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,49 +4847,52 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-226900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-536000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4890,19 +5123,22 @@
         <v>-2900</v>
       </c>
       <c r="P96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="Q96" s="3">
         <v>-2800</v>
       </c>
       <c r="R96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="S96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5302,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E100" s="3">
         <v>33100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>192000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-34600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-17700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>352000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>122400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E102" s="3">
         <v>13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-168600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>134600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,267 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E8" s="3">
         <v>217700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>223200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>223400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>204800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>151600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>143800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>146900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>138700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>135800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>136200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>97300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E9" s="3">
         <v>143300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>141300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>129500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>98900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>87600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>90300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>85800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>84100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E10" s="3">
         <v>74400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>80900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,22 +1062,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1069,70 +1088,73 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>300</v>
       </c>
       <c r="S14" s="3">
+        <v>300</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="3">
         <v>7500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4500</v>
       </c>
       <c r="M15" s="3">
         <v>4500</v>
@@ -1144,22 +1166,25 @@
         <v>4500</v>
       </c>
       <c r="P15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>6100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2000</v>
       </c>
       <c r="T15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>197700</v>
+      </c>
+      <c r="E17" s="3">
         <v>185800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>182500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>181400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>170200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>141200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>104300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>121000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>80500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E18" s="3">
         <v>31900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>16800</v>
       </c>
       <c r="S18" s="3">
         <v>16800</v>
       </c>
       <c r="T18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="U18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,161 +1343,168 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-400</v>
       </c>
       <c r="O20" s="3">
         <v>-400</v>
       </c>
       <c r="P20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E21" s="3">
         <v>44400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>54600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1479,120 +1518,129 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E23" s="3">
         <v>27300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4700</v>
       </c>
       <c r="O24" s="3">
         <v>4700</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E26" s="3">
         <v>23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E27" s="3">
         <v>23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,31 +1872,34 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1856,11 +1916,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1868,11 +1928,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2049,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>400</v>
       </c>
       <c r="O32" s="3">
         <v>400</v>
       </c>
       <c r="P32" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E33" s="3">
         <v>23600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>16400</v>
       </c>
       <c r="P33" s="3">
         <v>16400</v>
       </c>
       <c r="Q33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E35" s="3">
         <v>23600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>16400</v>
       </c>
       <c r="P35" s="3">
         <v>16400</v>
       </c>
       <c r="Q35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,64 +2397,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E41" s="3">
         <v>28500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>198500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,232 +2513,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E43" s="3">
         <v>139500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>142900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>138300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>127200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>101500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>80000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>78200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>77400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>80100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E44" s="3">
         <v>165600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>148200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>132300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>119800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>110400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>77600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>85000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>89300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>97200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>88400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>388400</v>
+      </c>
+      <c r="E46" s="3">
         <v>351600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>356700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>324400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>292600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>254000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>204000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>215100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>205000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>192600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>208300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>196900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>196300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>191100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>290800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,120 +2808,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E48" s="3">
         <v>174200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>165800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>163200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>160700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>163200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>139300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>140600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>141900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>145900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>144200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>146600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>145100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>126900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>122700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>114400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>93900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>852600</v>
+      </c>
+      <c r="E49" s="3">
         <v>872700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>879900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>837700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>841400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>862900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>644400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>632600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>632800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>672200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>666500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>692300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>689500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>703700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>678000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>674900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>211000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E52" s="3">
         <v>16800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>16900</v>
       </c>
       <c r="H52" s="3">
         <v>16900</v>
       </c>
       <c r="I52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J52" s="3">
         <v>11400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1434900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1415300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1418000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1340400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1311500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1297000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>999200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1001800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>993800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1021800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1021000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1059900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1047800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1042200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1008600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>992400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>603800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,64 +3269,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E57" s="3">
         <v>85300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>73900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3205,279 +3338,294 @@
         <v>18100</v>
       </c>
       <c r="E58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F58" s="3">
         <v>15400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E59" s="3">
         <v>66100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E60" s="3">
         <v>169500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>157900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>151000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>86400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>107300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>418800</v>
+      </c>
+      <c r="E61" s="3">
         <v>426200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>454900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>421000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>435900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>445800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>248500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>277200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>287100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>292800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>311400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>338700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>332300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>347500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>359800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>351700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E62" s="3">
         <v>110700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>116800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>115300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>76400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>76800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>79800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>76500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>699200</v>
+      </c>
+      <c r="E66" s="3">
         <v>706400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>729500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>682000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>686300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>689200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>411300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>435000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>442200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>444100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>462500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>501600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>507300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>511400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>482100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>489000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>390800</v>
+      </c>
+      <c r="E72" s="3">
         <v>363300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>342600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>317800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>290000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>270300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>267700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>257600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>247500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>267700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>256700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>246800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>232400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>219100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>205500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>196800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>192800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>735600</v>
+      </c>
+      <c r="E76" s="3">
         <v>709000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>688400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>658300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>625300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>607800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>587800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>566800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>551600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>577600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>558400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>558300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>540500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>530800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>526500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>503400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>525100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E81" s="3">
         <v>23600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>16400</v>
       </c>
       <c r="P81" s="3">
         <v>16400</v>
       </c>
       <c r="Q81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>8600</v>
       </c>
       <c r="O83" s="3">
         <v>8600</v>
       </c>
       <c r="P83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>10900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E89" s="3">
         <v>31200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,13 +5054,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4850,49 +5070,52 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-226900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-536000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5126,19 +5359,22 @@
         <v>-2900</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="R96" s="3">
         <v>-2800</v>
       </c>
       <c r="S96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="T96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5547,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>33100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>192000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>352000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>122400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-168600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>134600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,279 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E8" s="3">
         <v>240500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>217700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>223200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>223400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>204800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>151600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>129500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>143800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>146900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>138700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>135800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>136200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>97300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E9" s="3">
         <v>156900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>142300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>141300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>129500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>98900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>87600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>90300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>84100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>59700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E10" s="3">
         <v>83600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>80900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>82100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>46900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,25 +1081,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1091,73 +1110,76 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>300</v>
       </c>
       <c r="T14" s="3">
+        <v>300</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E15" s="3">
         <v>7000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4500</v>
       </c>
       <c r="N15" s="3">
         <v>4500</v>
@@ -1169,22 +1191,25 @@
         <v>4500</v>
       </c>
       <c r="Q15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R15" s="3">
         <v>6100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2000</v>
       </c>
       <c r="U15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E17" s="3">
         <v>197700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>185800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>182500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>181400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>170200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>141200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>121000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>119400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>80500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E18" s="3">
         <v>42800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>34600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>16800</v>
       </c>
       <c r="T18" s="3">
         <v>16800</v>
       </c>
       <c r="U18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="V18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,126 +1376,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-400</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-400</v>
       </c>
       <c r="P20" s="3">
         <v>-400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E21" s="3">
         <v>55600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>54100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1471,43 +1510,43 @@
         <v>3800</v>
       </c>
       <c r="E22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1521,126 +1560,135 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E23" s="3">
         <v>39300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4700</v>
       </c>
       <c r="P24" s="3">
         <v>4700</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="3">
         <v>30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E27" s="3">
         <v>30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,8 +1961,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1979,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1931,11 +1991,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>400</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
+        <v>400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>400</v>
       </c>
       <c r="P32" s="3">
         <v>400</v>
       </c>
       <c r="Q32" s="3">
+        <v>400</v>
+      </c>
+      <c r="R32" s="3">
         <v>5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E33" s="3">
         <v>30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>16400</v>
       </c>
       <c r="Q33" s="3">
         <v>16400</v>
       </c>
       <c r="R33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="S33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E35" s="3">
         <v>30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>16400</v>
       </c>
       <c r="Q35" s="3">
         <v>16400</v>
       </c>
       <c r="R35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="S35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,67 +2483,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E41" s="3">
         <v>33000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>198500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,244 +2605,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E43" s="3">
         <v>153100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>139500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>142900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>138300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>127200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>101500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>72700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>85000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>77400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E44" s="3">
         <v>180300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>165600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>148200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>132300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>119800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>110400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>77600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>85200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>89300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>97200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>88900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>88400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>40900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E46" s="3">
         <v>388400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>351600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>356700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>324400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>292600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>254000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>204000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>205000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>192600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>208300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>196900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>196300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>191100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>290800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2811,126 +2915,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E48" s="3">
         <v>170400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>174200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>165800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>163200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>160700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>163200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>139300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>140600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>141900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>145900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>144200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>146600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>145100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>126900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>122700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>114400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>93900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>818200</v>
+      </c>
+      <c r="E49" s="3">
         <v>852600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>872700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>879900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>837700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>841400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>862900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>644400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>632600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>632800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>672200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>666500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>692300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>689500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>703700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>678000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>674900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>211000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E52" s="3">
         <v>23500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>16900</v>
       </c>
       <c r="I52" s="3">
         <v>16900</v>
       </c>
       <c r="J52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K52" s="3">
         <v>11400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1405700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1434900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1415300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1418000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1340400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1311500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1297000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>999200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1001800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>993800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1021800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1021000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1059900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1047800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1042200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1008600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>992400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>603800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,362 +3399,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E57" s="3">
         <v>89100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>85300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>73900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>72600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18100</v>
+        <v>19200</v>
       </c>
       <c r="E58" s="3">
         <v>18100</v>
       </c>
       <c r="F58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G58" s="3">
         <v>15400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E59" s="3">
         <v>65800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>162800</v>
+      </c>
+      <c r="E60" s="3">
         <v>173000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>169500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>157900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>151000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>86400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>107300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>397600</v>
+      </c>
+      <c r="E61" s="3">
         <v>418800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>426200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>454900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>421000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>435900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>445800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>248500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>277200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>287100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>292800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>311400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>338700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>332300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>347500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>359800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>351700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E62" s="3">
         <v>107400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>116800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>115300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>76400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>76800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>79800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>76500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>658600</v>
+      </c>
+      <c r="E66" s="3">
         <v>699200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>706400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>729500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>682000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>686300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>689200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>411300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>435000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>442200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>444100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>462500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>501600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>507300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>511400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>482100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>489000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>417900</v>
+      </c>
+      <c r="E72" s="3">
         <v>390800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>363300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>342600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>317800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>290000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>270300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>267700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>257600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>247500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>267700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>256700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>246800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>232400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>219100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>205500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>196800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>192800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E76" s="3">
         <v>735600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>709000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>688400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>658300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>625300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>607800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>587800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>566800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>551600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>577600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>558400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>558300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>540500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>530800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>526500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>503400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>525100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E81" s="3">
         <v>30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>16400</v>
       </c>
       <c r="Q81" s="3">
         <v>16400</v>
       </c>
       <c r="R81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="S81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E83" s="3">
         <v>12600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8600</v>
       </c>
       <c r="P83" s="3">
         <v>8600</v>
       </c>
       <c r="Q83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R83" s="3">
         <v>10900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E89" s="3">
         <v>14700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,17 +5274,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5073,49 +5293,52 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-226900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-536000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5362,19 +5595,22 @@
         <v>-2900</v>
       </c>
       <c r="R96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="S96" s="3">
         <v>-2800</v>
       </c>
       <c r="T96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,67 +5792,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>33100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>192000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>352000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>122400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5618,113 +5866,119 @@
         <v>1300</v>
       </c>
       <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-168600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>134600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,291 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E8" s="3">
         <v>241700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>240500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>217700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>223200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>223400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>204800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>151600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>129500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>143800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>146900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>135800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>136200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>97300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E9" s="3">
         <v>159400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>156900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>141300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>129500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>85900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>90300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>84100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>85800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>59700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E10" s="3">
         <v>82300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>83600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>80900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,8 +972,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1100,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1095,17 +1114,17 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1113,41 +1132,44 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>300</v>
       </c>
       <c r="U14" s="3">
+        <v>300</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,34 +1177,34 @@
         <v>6800</v>
       </c>
       <c r="E15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F15" s="3">
         <v>7000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4500</v>
       </c>
       <c r="O15" s="3">
         <v>4500</v>
@@ -1194,22 +1216,25 @@
         <v>4500</v>
       </c>
       <c r="R15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S15" s="3">
         <v>6100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8100</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2000</v>
       </c>
       <c r="V15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E17" s="3">
         <v>198700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>197700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>185800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>182500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>181400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>170200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>121000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>119400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>80500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E18" s="3">
         <v>43000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>16800</v>
       </c>
       <c r="U18" s="3">
         <v>16800</v>
       </c>
       <c r="V18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="W18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,179 +1409,186 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-400</v>
       </c>
       <c r="Q20" s="3">
         <v>-400</v>
       </c>
       <c r="R20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E21" s="3">
         <v>55000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>49400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
         <v>3800</v>
       </c>
       <c r="F22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1563,132 +1602,141 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E23" s="3">
         <v>38800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>4700</v>
       </c>
       <c r="Q24" s="3">
         <v>4700</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2024,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2042,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1994,11 +2054,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2187,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>400</v>
       </c>
       <c r="Q32" s="3">
         <v>400</v>
       </c>
       <c r="R32" s="3">
+        <v>400</v>
+      </c>
+      <c r="S32" s="3">
         <v>5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>16400</v>
       </c>
       <c r="R33" s="3">
         <v>16400</v>
       </c>
       <c r="S33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="T33" s="3">
         <v>11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>16400</v>
       </c>
       <c r="R35" s="3">
         <v>16400</v>
       </c>
       <c r="S35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="T35" s="3">
         <v>11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,70 +2569,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E41" s="3">
         <v>41300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>198500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,256 +2697,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E43" s="3">
         <v>152600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>153100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>139500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>142900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>138300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>76100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>72700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>85000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>77400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E44" s="3">
         <v>178900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>180300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>165600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>148200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>132300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>119800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>110400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>77600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>85200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>89300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>97200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>88900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>86000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>88400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>40900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E45" s="3">
         <v>17500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>374300</v>
+      </c>
+      <c r="E46" s="3">
         <v>390300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>388400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>351600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>356700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>324400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>292600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>254000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>205000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>192600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>208300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>196900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>196300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>191100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>290800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2918,132 +3022,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E48" s="3">
         <v>168900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>170400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>174200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>165800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>163200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>160700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>163200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>139300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>140600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>141900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>145900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>144200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>146600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>145100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>126900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>122700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>114400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>93900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>843700</v>
+      </c>
+      <c r="E49" s="3">
         <v>818200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>852600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>872700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>879900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>837700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>841400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>862900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>644400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>632600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>632800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>672200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>666500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>692300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>689500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>703700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>678000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>674900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>211000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E52" s="3">
         <v>28400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>16900</v>
       </c>
       <c r="J52" s="3">
         <v>16900</v>
       </c>
       <c r="K52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L52" s="3">
         <v>11400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1419600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1405700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1434900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1415300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1418000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1340400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1311500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1297000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>999200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1001800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>993800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1021800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1021000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1059900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1047800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1042200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1008600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>992400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>603800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,380 +3529,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E57" s="3">
         <v>76500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>89100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>85300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>73900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>72600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E58" s="3">
         <v>19200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>18100</v>
       </c>
       <c r="F58" s="3">
         <v>18100</v>
       </c>
       <c r="G58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H58" s="3">
         <v>15400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E59" s="3">
         <v>67100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>50900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>64600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E60" s="3">
         <v>162800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>173000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>169500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>157900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>151000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>142100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>128000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>98600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>107300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>52300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E61" s="3">
         <v>397600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>418800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>426200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>454900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>421000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>435900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>445800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>277200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>287100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>292800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>311400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>338700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>332300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>347500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>359800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>351700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E62" s="3">
         <v>98200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>116800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>110000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>115300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>76400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>76800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>79800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>30000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>668100</v>
+      </c>
+      <c r="E66" s="3">
         <v>658600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>699200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>706400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>729500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>682000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>686300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>689200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>411300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>435000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>442200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>444100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>462500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>501600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>507300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>511400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>482100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>489000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>435400</v>
+      </c>
+      <c r="E72" s="3">
         <v>417900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>390800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>363300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>342600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>317800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>290000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>270300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>267700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>257600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>247500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>267700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>256700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>246800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>232400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>219100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>205500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>196800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>192800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>751400</v>
+      </c>
+      <c r="E76" s="3">
         <v>747000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>735600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>709000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>688400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>658300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>625300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>607800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>587800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>566800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>551600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>577600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>558400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>558300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>540500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>530800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>526500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>503400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>525100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>16400</v>
       </c>
       <c r="R81" s="3">
         <v>16400</v>
       </c>
       <c r="S81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="T81" s="3">
         <v>11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,8 +5014,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4826,61 +5024,64 @@
         <v>12400</v>
       </c>
       <c r="E83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F83" s="3">
         <v>12600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>8600</v>
       </c>
       <c r="Q83" s="3">
         <v>8600</v>
       </c>
       <c r="R83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="S83" s="3">
         <v>10900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E89" s="3">
         <v>29500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,20 +5494,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5296,49 +5516,52 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-226900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-536000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5598,19 +5831,22 @@
         <v>-2900</v>
       </c>
       <c r="S96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="T96" s="3">
         <v>-2800</v>
       </c>
       <c r="U96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="V96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,190 +6037,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>33100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>192000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>352000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>122400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>1300</v>
       </c>
       <c r="F101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-168600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>134600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,304 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E8" s="3">
         <v>207200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>241700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>240500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>217700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>223200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>223400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>204800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>151600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>129500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>138000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>143800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>146900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>135800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>136200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>97300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E9" s="3">
         <v>137900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>159400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>156900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>143300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>141300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>129500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>85900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>90300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>84100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>85800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>59700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E10" s="3">
         <v>69300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>83600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>74400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>80900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>37600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,13 +1120,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1117,17 +1137,17 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1135,79 +1155,82 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>300</v>
       </c>
       <c r="V14" s="3">
+        <v>300</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="E15" s="3">
         <v>6800</v>
       </c>
       <c r="F15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G15" s="3">
         <v>7000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4500</v>
       </c>
       <c r="P15" s="3">
         <v>4500</v>
@@ -1219,22 +1242,25 @@
         <v>4500</v>
       </c>
       <c r="S15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T15" s="3">
         <v>6100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2000</v>
       </c>
       <c r="W15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E17" s="3">
         <v>176500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>198700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>197700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>185800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>182500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>181400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>170200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>102600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>118900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>121000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>116900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>80500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E18" s="3">
         <v>30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>16800</v>
       </c>
       <c r="V18" s="3">
         <v>16800</v>
       </c>
       <c r="W18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="X18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,188 +1443,195 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-400</v>
       </c>
       <c r="R20" s="3">
         <v>-400</v>
       </c>
       <c r="S20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E21" s="3">
         <v>43100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>54600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>49400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3800</v>
       </c>
       <c r="F22" s="3">
         <v>3800</v>
       </c>
       <c r="G22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4400</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1605,138 +1645,147 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>26700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>38800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>4700</v>
       </c>
       <c r="R24" s="3">
         <v>4700</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E26" s="3">
         <v>20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E27" s="3">
         <v>20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2053,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,8 +2088,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2045,11 +2106,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2057,11 +2118,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,138 +2257,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>400</v>
       </c>
       <c r="R32" s="3">
         <v>400</v>
       </c>
       <c r="S32" s="3">
+        <v>400</v>
+      </c>
+      <c r="T32" s="3">
         <v>5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E33" s="3">
         <v>20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>16400</v>
       </c>
       <c r="S33" s="3">
         <v>16400</v>
       </c>
       <c r="T33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E35" s="3">
         <v>20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>16400</v>
       </c>
       <c r="S35" s="3">
         <v>16400</v>
       </c>
       <c r="T35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,73 +2656,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E41" s="3">
         <v>36800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>198500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,268 +2790,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E43" s="3">
         <v>138200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>152600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>153100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>139500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>142900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>138300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>127200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>72700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>80300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>77400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>80100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>74900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>47400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>191600</v>
+      </c>
+      <c r="E44" s="3">
         <v>179700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>178900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>180300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>165600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>148200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>132300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>119800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>110400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>85000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>89300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>97200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>88900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>86000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>88400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>40900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
         <v>19600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E46" s="3">
         <v>374300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>390300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>388400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>351600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>356700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>324400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>292600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>205000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>192600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>196400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>208300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>196900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>196300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>191100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>290800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3025,138 +3130,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E48" s="3">
         <v>171300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>168900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>170400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>174200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>165800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>163200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>160700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>163200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>139300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>140600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>141900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>145900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>144200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>146600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>145100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>126900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>122700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>114400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>93900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>874100</v>
+      </c>
+      <c r="E49" s="3">
         <v>843700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>818200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>852600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>872700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>879900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>837700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>841400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>862900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>644400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>632600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>632800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>672200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>666500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>692300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>689500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>703700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>678000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>674900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>211000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,73 +3402,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E52" s="3">
         <v>30300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>16900</v>
       </c>
       <c r="K52" s="3">
         <v>16900</v>
       </c>
       <c r="L52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="M52" s="3">
         <v>11400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1463700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1419600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1405700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1434900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1415300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1418000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1340400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1311500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1297000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>999200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1001800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>993800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1021800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1021000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1059900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1047800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1042200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1008600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>992400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>603800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,398 +3660,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E57" s="3">
         <v>64900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>89100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>85300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>73900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>59500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E58" s="3">
         <v>18900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>18100</v>
       </c>
       <c r="G58" s="3">
         <v>18100</v>
       </c>
       <c r="H58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I58" s="3">
         <v>15400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E59" s="3">
         <v>60300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>50900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>64600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E60" s="3">
         <v>144100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>162800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>169500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>157900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>142100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>86400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>98600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>107300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>52300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>425500</v>
+      </c>
+      <c r="E61" s="3">
         <v>437000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>397600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>418800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>426200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>454900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>421000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>435900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>445800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>248500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>277200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>287100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>292800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>311400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>338700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>332300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>347500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>359800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>351700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E62" s="3">
         <v>87000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>116800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>110000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>115300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>76400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>76800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>74700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>76500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>30400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>30000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>668800</v>
+      </c>
+      <c r="E66" s="3">
         <v>668100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>658600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>699200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>706400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>729500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>682000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>686300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>689200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>411300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>435000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>442200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>444100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>462500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>501600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>507300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>511400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>482100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>489000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>78700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E72" s="3">
         <v>435400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>417900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>390800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>363300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>342600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>317800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>290000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>270300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>267700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>257600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>247500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>267700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>256700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>246800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>232400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>219100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>205500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>196800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>192800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>794900</v>
+      </c>
+      <c r="E76" s="3">
         <v>751400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>747000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>735600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>709000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>688400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>658300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>625300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>607800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>587800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>566800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>551600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>577600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>558400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>558300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>540500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>530800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>526500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>503400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>525100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E81" s="3">
         <v>20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>16400</v>
       </c>
       <c r="S81" s="3">
         <v>16400</v>
       </c>
       <c r="T81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12400</v>
+        <v>14200</v>
       </c>
       <c r="E83" s="3">
         <v>12400</v>
       </c>
       <c r="F83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>8600</v>
       </c>
       <c r="R83" s="3">
         <v>8600</v>
       </c>
       <c r="S83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="T83" s="3">
         <v>10900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E89" s="3">
         <v>30000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,23 +5715,24 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5519,49 +5740,52 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-226900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-536000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5834,19 +6068,22 @@
         <v>-2900</v>
       </c>
       <c r="T96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="U96" s="3">
         <v>-2800</v>
       </c>
       <c r="V96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="W96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,199 +6283,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E100" s="3">
         <v>40400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>33100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>192000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>352000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>122400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1300</v>
       </c>
       <c r="F101" s="3">
         <v>1300</v>
       </c>
       <c r="G101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-168600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>134600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,317 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E8" s="3">
         <v>196000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>207200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>241700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>240500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>217700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>223200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>223400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>204800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>151600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>129500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>138000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>143800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>146900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>135800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>136200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>97300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E9" s="3">
         <v>132700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>137900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>159400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>156900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>143300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>141300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>87600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>90300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>85800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>84100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>85800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>59700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E10" s="3">
         <v>63300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>83600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>80900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>82100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>37600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,16 +1140,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1140,17 +1160,17 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1158,82 +1178,85 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1700</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>300</v>
       </c>
       <c r="W14" s="3">
+        <v>300</v>
+      </c>
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E15" s="3">
         <v>7500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6800</v>
       </c>
       <c r="F15" s="3">
         <v>6800</v>
       </c>
       <c r="G15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H15" s="3">
         <v>7000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4500</v>
       </c>
       <c r="Q15" s="3">
         <v>4500</v>
@@ -1245,22 +1268,25 @@
         <v>4500</v>
       </c>
       <c r="T15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U15" s="3">
         <v>6100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8100</v>
-      </c>
-      <c r="W15" s="3">
-        <v>2000</v>
       </c>
       <c r="X15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E17" s="3">
         <v>175300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>176500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>198700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>197700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>185800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>182500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>181400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>170200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>107200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>117500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>121000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>116700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>116900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>80500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E18" s="3">
         <v>20700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>16800</v>
       </c>
       <c r="W18" s="3">
         <v>16800</v>
       </c>
       <c r="X18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="Y18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,197 +1477,204 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-400</v>
       </c>
       <c r="S20" s="3">
         <v>-400</v>
       </c>
       <c r="T20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U20" s="3">
         <v>-5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E21" s="3">
         <v>36300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>54100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3800</v>
       </c>
       <c r="G22" s="3">
         <v>3800</v>
       </c>
       <c r="H22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4400</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1648,144 +1688,153 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>38800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>4700</v>
       </c>
       <c r="S24" s="3">
         <v>4700</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E26" s="3">
         <v>17500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E27" s="3">
         <v>17500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,8 +2152,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2109,11 +2170,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2121,11 +2182,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>400</v>
       </c>
       <c r="S32" s="3">
         <v>400</v>
       </c>
       <c r="T32" s="3">
+        <v>400</v>
+      </c>
+      <c r="U32" s="3">
         <v>5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E33" s="3">
         <v>17500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>16400</v>
       </c>
       <c r="T33" s="3">
         <v>16400</v>
       </c>
       <c r="U33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="V33" s="3">
         <v>11600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E35" s="3">
         <v>17500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>16400</v>
       </c>
       <c r="T35" s="3">
         <v>16400</v>
       </c>
       <c r="U35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="V35" s="3">
         <v>11600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,76 +2743,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>43700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>198500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,280 +2883,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E43" s="3">
         <v>139100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>138200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>152600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>153100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>139500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>142900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>138300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>76100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>72700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>80300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>77400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>80100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>74900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>47400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E44" s="3">
         <v>191600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>179700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>178900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>180300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>165600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>148200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>132300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>119800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>110400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>85000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>86700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>89300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>88900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>86000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>88400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>40900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>408600</v>
+      </c>
+      <c r="E46" s="3">
         <v>388500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>374300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>390300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>388400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>351600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>356700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>324400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>292600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>254000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>215100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>205000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>192600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>196400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>208300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>196900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>196300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>191100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>290800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,144 +3238,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>202600</v>
+      </c>
+      <c r="E48" s="3">
         <v>175700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>168900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>170400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>174200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>165800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>163200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>160700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>163200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>139300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>140600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>141900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>145900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>144200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>146600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>145100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>126900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>122700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>114400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>93900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>922200</v>
+      </c>
+      <c r="E49" s="3">
         <v>874100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>843700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>818200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>852600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>872700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>879900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>837700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>841400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>862900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>644400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>632600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>632800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>672200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>666500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>692300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>689500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>703700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>678000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>674900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>211000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E52" s="3">
         <v>25400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>16900</v>
       </c>
       <c r="L52" s="3">
         <v>16900</v>
       </c>
       <c r="M52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="N52" s="3">
         <v>11400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1556800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1463700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1419600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1405700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1434900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1415300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1418000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1340400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1311500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1297000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>999200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1001800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>993800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1021800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1021000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1059900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1047800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1042200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1008600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>992400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>603800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,416 +3791,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E57" s="3">
         <v>73700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>89100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>85300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>73900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>59500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>36100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E58" s="3">
         <v>19000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18100</v>
       </c>
       <c r="H58" s="3">
         <v>18100</v>
       </c>
       <c r="I58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J58" s="3">
         <v>15400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3500</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E59" s="3">
         <v>59600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>68600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>50900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>64600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>35700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E60" s="3">
         <v>152300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>144100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>162800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>173000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>169500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>157900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>151000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>142100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>98600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>91900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>107300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>52300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>504500</v>
+      </c>
+      <c r="E61" s="3">
         <v>425500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>437000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>397600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>418800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>426200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>454900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>421000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>435900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>445800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>248500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>277200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>287100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>292800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>311400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>338700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>332300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>347500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>359800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>351700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E62" s="3">
         <v>91000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>87000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>107400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>110700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>116800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>110000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>115300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>76400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>75900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>76800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>74900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>74700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>79800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>76500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>70900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>30400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>30000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>748200</v>
+      </c>
+      <c r="E66" s="3">
         <v>668800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>668100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>658600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>699200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>706400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>729500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>682000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>686300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>689200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>411300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>435000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>442200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>444100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>462500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>501600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>507300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>511400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>482100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>489000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>460900</v>
+      </c>
+      <c r="E72" s="3">
         <v>450000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>435400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>417900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>390800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>363300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>342600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>317800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>290000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>270300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>267700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>257600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>247500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>267700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>256700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>246800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>232400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>219100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>205500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>196800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>192800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>808600</v>
+      </c>
+      <c r="E76" s="3">
         <v>794900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>751400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>747000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>735600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>709000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>688400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>658300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>625300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>607800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>587800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>566800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>551600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>577600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>558400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>558300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>540500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>530800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>526500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>503400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>525100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E81" s="3">
         <v>17500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>16400</v>
       </c>
       <c r="T81" s="3">
         <v>16400</v>
       </c>
       <c r="U81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="V81" s="3">
         <v>11600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E83" s="3">
         <v>14200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>12400</v>
       </c>
       <c r="F83" s="3">
         <v>12400</v>
       </c>
       <c r="G83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>8600</v>
       </c>
       <c r="S83" s="3">
         <v>8600</v>
       </c>
       <c r="T83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="U83" s="3">
         <v>10900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>35700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="E91" s="3">
-        <v>-8400</v>
+        <v>-10700</v>
       </c>
       <c r="F91" s="3">
-        <v>-7800</v>
+        <v>-9200</v>
       </c>
       <c r="G91" s="3">
-        <v>-5600</v>
+        <v>-8500</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-75900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-226900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-536000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,13 +6247,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
         <v>-2900</v>
@@ -6071,19 +6305,22 @@
         <v>-2900</v>
       </c>
       <c r="U96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="V96" s="3">
         <v>-2800</v>
       </c>
       <c r="W96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="X96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>40400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>33100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>192000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>352000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>122400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1300</v>
       </c>
       <c r="G101" s="3">
         <v>1300</v>
       </c>
       <c r="H101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-168600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>134600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E8" s="3">
         <v>213200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>196000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>207200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>241700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>240500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>217700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>223200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>223400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>204800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>151600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>122600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>129500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>143800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>146900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>138700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>135800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>136200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>97300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E9" s="3">
         <v>142200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>137900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>159400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>156900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>141300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>129500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>77600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>87600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>90300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>85800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>84100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>85800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>59700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E10" s="3">
         <v>71000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>82300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>83600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>80900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>82100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>46900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>52900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>37600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1013,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1085,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,37 +1159,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1181,85 +1200,88 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>300</v>
       </c>
       <c r="X14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6800</v>
       </c>
       <c r="G15" s="3">
         <v>6800</v>
       </c>
       <c r="H15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I15" s="3">
         <v>7000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4500</v>
       </c>
       <c r="R15" s="3">
         <v>4500</v>
@@ -1271,22 +1293,25 @@
         <v>4500</v>
       </c>
       <c r="U15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V15" s="3">
         <v>6100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8100</v>
-      </c>
-      <c r="X15" s="3">
-        <v>2000</v>
       </c>
       <c r="Y15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1334,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E17" s="3">
         <v>188400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>175300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>176500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>198700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>197700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>185800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>182500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>181400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>170200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>102600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>107200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>117500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>121000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>116700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>116900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>119400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>80500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E18" s="3">
         <v>24800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18900</v>
-      </c>
-      <c r="W18" s="3">
-        <v>16800</v>
       </c>
       <c r="X18" s="3">
         <v>16800</v>
       </c>
       <c r="Y18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="Z18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,206 +1510,213 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-400</v>
       </c>
       <c r="M20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-400</v>
       </c>
       <c r="T20" s="3">
         <v>-400</v>
       </c>
       <c r="U20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E21" s="3">
         <v>39400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>55600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>49400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>26000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3800</v>
       </c>
       <c r="H22" s="3">
         <v>3800</v>
       </c>
       <c r="I22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4400</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
@@ -1691,150 +1730,159 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E23" s="3">
         <v>18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>4700</v>
       </c>
       <c r="T24" s="3">
         <v>4700</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1904,150 +1952,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>13900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>13900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2117,8 +2174,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,8 +2215,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2173,11 +2233,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-600</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2185,11 +2245,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2322,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2330,150 +2396,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>400</v>
       </c>
       <c r="M32" s="3">
+        <v>400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>400</v>
       </c>
       <c r="T32" s="3">
         <v>400</v>
       </c>
       <c r="U32" s="3">
+        <v>400</v>
+      </c>
+      <c r="V32" s="3">
         <v>5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>13900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>16400</v>
       </c>
       <c r="U33" s="3">
         <v>16400</v>
       </c>
       <c r="V33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="W33" s="3">
         <v>11600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,155 +2618,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>13900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>16400</v>
       </c>
       <c r="U35" s="3">
         <v>16400</v>
       </c>
       <c r="V35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="W35" s="3">
         <v>11600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +2801,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2744,79 +2829,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>198500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2886,292 +2975,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E43" s="3">
         <v>148200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>139100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>138200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>152600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>153100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>139500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>142900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>138300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>101500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>76100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>72700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>85000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>84200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>77400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>80100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>47400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E44" s="3">
         <v>202400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>191600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>179700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>178900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>180300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>165600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>148200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>132300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>119800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>110400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>89300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>97200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>88900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>86000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>88400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>40900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E45" s="3">
         <v>21700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E46" s="3">
         <v>408600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>388500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>374300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>390300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>388400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>351600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>356700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>324400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>292600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>254000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>204000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>215100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>205000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>192600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>196400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>208300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>196900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>196300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>191100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>290800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3241,150 +3345,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E48" s="3">
         <v>202600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>175700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>168900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>170400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>174200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>165800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>163200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>160700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>163200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>139300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>140600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>141900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>145900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>144200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>146600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>145100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>126900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>122700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>114400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>93900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>951800</v>
+      </c>
+      <c r="E49" s="3">
         <v>922200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>874100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>843700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>818200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>852600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>872700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>879900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>837700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>841400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>862900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>644400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>632600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>632800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>672200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>666500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>692300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>689500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>703700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>678000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>674900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>211000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,8 +3567,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3525,79 +3641,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>16900</v>
       </c>
       <c r="M52" s="3">
         <v>16900</v>
       </c>
       <c r="N52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="O52" s="3">
         <v>11400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3667,79 +3789,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1610700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1556800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1463700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1419600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1405700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1434900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1415300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1418000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1340400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1311500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1297000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>999200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1001800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>993800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1021800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1021000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1059900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1047800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1042200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1008600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>992400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>603800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3765,8 +3893,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,434 +3921,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E57" s="3">
         <v>71700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>73700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>89100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>85300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>73900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>72600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>59500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>36100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E58" s="3">
         <v>20200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>18100</v>
       </c>
       <c r="I58" s="3">
         <v>18100</v>
       </c>
       <c r="J58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K58" s="3">
         <v>15400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3500</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E59" s="3">
         <v>61100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>68600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>52300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>51500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>50900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>64600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E60" s="3">
         <v>153000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>152300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>144100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>162800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>173000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>169500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>157900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>151000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>142100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>128000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>86400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>81900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>76400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>98600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>91900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>107300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>52300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>528600</v>
+      </c>
+      <c r="E61" s="3">
         <v>504500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>425500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>437000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>397600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>418800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>426200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>454900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>421000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>435900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>445800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>248500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>277200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>287100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>292800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>311400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>338700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>332300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>347500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>359800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>351700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E62" s="3">
         <v>90700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>87000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>110700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>116800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>110000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>115300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>76400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>75900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>76800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>74900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>74700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>79800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>76500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>70900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>30400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>30000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4289,8 +4437,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4511,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4431,79 +4585,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>763200</v>
+      </c>
+      <c r="E66" s="3">
         <v>748200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>668800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>668100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>658600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>699200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>706400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>729500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>682000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>686300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>689200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>411300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>435000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>442200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>444100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>462500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>501600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>507300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>511400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>482100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>489000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>78700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4529,8 +4689,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4600,8 +4761,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,8 +4835,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4742,8 +4909,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4813,79 +4983,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>474700</v>
+      </c>
+      <c r="E72" s="3">
         <v>460900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>450000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>435400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>417900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>390800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>363300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>342600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>317800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>290000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>270300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>267700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>257600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>247500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>267700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>256700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>246800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>232400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>219100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>205500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>196800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>192800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4955,8 +5131,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5026,8 +5205,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,79 +5279,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>847500</v>
+      </c>
+      <c r="E76" s="3">
         <v>808600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>794900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>751400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>747000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>735600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>709000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>688400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>658300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>625300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>607800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>587800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>566800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>551600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>577600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>558400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>558300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>540500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>530800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>526500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>503400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>525100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,155 +5427,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>13900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>16400</v>
       </c>
       <c r="U81" s="3">
         <v>16400</v>
       </c>
       <c r="V81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="W81" s="3">
         <v>11600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,79 +5610,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E83" s="3">
         <v>15200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>12400</v>
       </c>
       <c r="G83" s="3">
         <v>12400</v>
       </c>
       <c r="H83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8600</v>
       </c>
       <c r="T83" s="3">
         <v>8600</v>
       </c>
       <c r="U83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="V83" s="3">
         <v>10900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5555,8 +5756,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5626,8 +5830,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5697,8 +5904,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5768,8 +5978,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5839,79 +6052,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E89" s="3">
         <v>12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>33200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5937,79 +6156,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6079,8 +6302,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6150,79 +6376,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-75900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-226900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-536000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6248,16 +6480,17 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2900</v>
       </c>
       <c r="F96" s="3">
         <v>-2900</v>
@@ -6308,19 +6541,22 @@
         <v>-2900</v>
       </c>
       <c r="V96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="W96" s="3">
         <v>-2800</v>
       </c>
       <c r="X96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="Y96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6390,8 +6626,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6461,8 +6700,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6532,217 +6774,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E100" s="3">
         <v>73800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>40400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>192000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>352000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>122400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1300</v>
       </c>
       <c r="H101" s="3">
         <v>1300</v>
       </c>
       <c r="I101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-168600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>134600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-17300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>HLIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,342 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E8" s="3">
         <v>227600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>213200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>196000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>207200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>241700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>240500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>217700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>223200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>223400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>204800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>151600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>122600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>129500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>143800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>146900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>138700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>135800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>136200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>97300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E9" s="3">
         <v>151800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>137900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>159400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>156900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>141300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>129500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>74600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>87600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>90300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>85800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>84100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>85800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>59700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E10" s="3">
         <v>75800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>63300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>69300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>83600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>82100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>46900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>52900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>37600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1027,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1102,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,8 +1179,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,14 +1208,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1203,88 +1223,91 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>300</v>
       </c>
       <c r="Y14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E15" s="3">
         <v>8300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6800</v>
       </c>
       <c r="H15" s="3">
         <v>6800</v>
       </c>
       <c r="I15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J15" s="3">
         <v>7000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>4500</v>
       </c>
       <c r="S15" s="3">
         <v>4500</v>
@@ -1296,22 +1319,25 @@
         <v>4500</v>
       </c>
       <c r="V15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W15" s="3">
         <v>6100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8100</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>2000</v>
       </c>
       <c r="Z15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1335,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E17" s="3">
         <v>198100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>188400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>175300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>176500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>198700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>197700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>185800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>182500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>181400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>170200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>141200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>107200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>121000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>116700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>116900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>119400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>80500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>29500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18900</v>
-      </c>
-      <c r="X18" s="3">
-        <v>16800</v>
       </c>
       <c r="Y18" s="3">
         <v>16800</v>
       </c>
       <c r="Z18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="AA18" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,215 +1544,222 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-400</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
       </c>
       <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-400</v>
       </c>
       <c r="U20" s="3">
         <v>-400</v>
       </c>
       <c r="V20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E21" s="3">
         <v>45700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>55000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>55600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>49400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3800</v>
       </c>
       <c r="I22" s="3">
         <v>3800</v>
       </c>
       <c r="J22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4400</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
@@ -1733,156 +1773,165 @@
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>21800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>38800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>4700</v>
       </c>
       <c r="U24" s="3">
         <v>4700</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>16800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2177,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2218,8 +2279,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2236,11 +2297,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2248,11 +2309,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2325,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,156 +2466,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
       </c>
       <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>400</v>
       </c>
       <c r="U32" s="3">
         <v>400</v>
       </c>
       <c r="V32" s="3">
+        <v>400</v>
+      </c>
+      <c r="W32" s="3">
         <v>5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>16800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>16400</v>
       </c>
       <c r="V33" s="3">
         <v>16400</v>
       </c>
       <c r="W33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="X33" s="3">
         <v>11600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2621,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>16800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>16400</v>
       </c>
       <c r="V35" s="3">
         <v>16400</v>
       </c>
       <c r="W35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="X35" s="3">
         <v>11600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2802,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2830,82 +2916,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E41" s="3">
         <v>37500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>198500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>63900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2978,304 +3068,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E43" s="3">
         <v>147400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>148200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>139100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>138200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>152600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>153100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>139500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>142900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>138300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>127200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>101500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>76100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>72700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>85000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>84200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>77400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>80100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>74900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>47400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E44" s="3">
         <v>205700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>202400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>191600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>179700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>178900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>180300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>165600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>148200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>132300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>119800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>110400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>89300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>97200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>88900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>86000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>88400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>77300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>40900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>410200</v>
+      </c>
+      <c r="E46" s="3">
         <v>413000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>408600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>388500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>374300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>390300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>388400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>351600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>356700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>324400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>292600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>254000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>204000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>215100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>205000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>192600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>196400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>208300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>196900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>196300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>191100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>290800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3348,156 +3453,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E48" s="3">
         <v>217900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>202600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>175700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>168900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>170400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>174200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>165800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>163200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>160700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>163200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>139300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>140600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>141900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>145900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>144200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>146600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>145100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>126900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>122700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>114400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>93900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>929100</v>
+      </c>
+      <c r="E49" s="3">
         <v>951800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>922200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>874100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>843700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>818200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>852600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>872700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>879900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>837700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>841400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>862900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>644400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>632600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>632800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>672200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>666500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>692300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>689500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>703700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>678000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>674900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>211000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3570,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3644,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E52" s="3">
         <v>28000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>16900</v>
       </c>
       <c r="N52" s="3">
         <v>16900</v>
       </c>
       <c r="O52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="P52" s="3">
         <v>11400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3792,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1590600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1610700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1556800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1463700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1419600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1405700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1434900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1415300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1418000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1340400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1311500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1297000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>999200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1001800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>993800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1021800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1021000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1059900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1047800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1042200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1008600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>992400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>603800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3894,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3922,452 +4052,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E57" s="3">
         <v>71600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>71700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>73700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>89100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>85300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>73900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>72600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>59500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>36100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E58" s="3">
         <v>20500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>18100</v>
       </c>
       <c r="J58" s="3">
         <v>18100</v>
       </c>
       <c r="K58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="L58" s="3">
         <v>15400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E59" s="3">
         <v>53900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>51500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>50900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>64600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E60" s="3">
         <v>146000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>153000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>152300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>144100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>162800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>173000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>169500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>157900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>142100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>128000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>86400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>81900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>76500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>76400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>98600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>91900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>107300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>52300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>522100</v>
+      </c>
+      <c r="E61" s="3">
         <v>528600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>504500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>425500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>437000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>397600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>418800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>426200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>454900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>421000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>435900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>445800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>248500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>277200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>287100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>292800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>311400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>338700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>332300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>347500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>359800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>351700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E62" s="3">
         <v>88600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>91000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>87000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>98200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>107400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>110700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>116800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>115300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>76400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>74900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>74700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>79800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>76500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>70900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>30400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>30000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4440,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4514,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4588,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>748600</v>
+      </c>
+      <c r="E66" s="3">
         <v>763200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>748200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>668800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>668100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>658600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>699200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>706400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>729500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>682000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>686300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>689200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>411300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>435000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>442200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>444100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>462500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>501600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>507300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>511400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>482100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>489000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>78700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>187100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4690,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4764,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4838,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4912,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4986,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>475300</v>
+      </c>
+      <c r="E72" s="3">
         <v>474700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>460900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>450000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>435400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>417900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>390800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>363300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>342600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>317800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>290000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>270300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>267700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>257600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>247500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>267700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>256700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>246800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>232400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>219100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>205500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>196800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>192800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5134,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5208,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5282,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E76" s="3">
         <v>847500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>808600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>794900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>751400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>747000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>735600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>709000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>688400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>658300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>625300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>607800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>587800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>566800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>551600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>577600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>558400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>558300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>540500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>530800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>526500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>503400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>525100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>272700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5430,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>16800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>16400</v>
       </c>
       <c r="V81" s="3">
         <v>16400</v>
       </c>
       <c r="W81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="X81" s="3">
         <v>11600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5611,82 +5809,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E83" s="3">
         <v>16100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12400</v>
       </c>
       <c r="H83" s="3">
         <v>12400</v>
       </c>
       <c r="I83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>8600</v>
       </c>
       <c r="U83" s="3">
         <v>8600</v>
       </c>
       <c r="V83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="W83" s="3">
         <v>10900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5759,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5833,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5907,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5981,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6055,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E89" s="3">
         <v>26100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>33200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6157,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6305,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6379,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-94600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-75900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-226900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-536000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6481,8 +6714,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6490,10 +6724,10 @@
         <v>-2900</v>
       </c>
       <c r="E96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2900</v>
       </c>
       <c r="G96" s="3">
         <v>-2900</v>
@@ -6544,19 +6778,22 @@
         <v>-2900</v>
       </c>
       <c r="W96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="X96" s="3">
         <v>-2800</v>
       </c>
       <c r="Y96" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="Z96" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6629,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6703,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6777,226 +7020,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>16300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>40400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>192000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-17700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-11300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>352000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>122400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1300</v>
       </c>
       <c r="I101" s="3">
         <v>1300</v>
       </c>
       <c r="J101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-168600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>134600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-17300</v>
       </c>
     </row>
